--- a/варианты 2025/байт/байт2/18.xlsx
+++ b/варианты 2025/байт/байт2/18.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjhgb\PycharmProjects\isakovich2023\варианты 2025\байт\байт2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CD92D98-A2D8-4408-9232-E7E31C66C299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7654F7B1-83C0-8A48-AA81-7CF47B6C5364}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -281,7 +275,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -333,7 +327,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -527,24 +521,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8883763-D807-7E49-9555-D5F536FE0959}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="21" max="21" width="4.625" customWidth="1"/>
+    <col min="1" max="20" width="3.25" customWidth="1"/>
+    <col min="21" max="21" width="1.5" customWidth="1"/>
     <col min="22" max="22" width="9.625" customWidth="1"/>
+    <col min="34" max="34" width="6.375" customWidth="1"/>
+    <col min="37" max="37" width="6.625" customWidth="1"/>
+    <col min="42" max="42" width="6.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -750,83 +748,83 @@
         <v>59</v>
       </c>
       <c r="W2" s="14">
-        <f>W1+A2</f>
+        <f t="shared" ref="W2:W20" si="1">W1+A2</f>
         <v>134</v>
       </c>
       <c r="X2">
-        <f>MIN(W2,X1)+B2</f>
-        <v>156</v>
+        <f>MAX(W2,X1)+B2</f>
+        <v>171</v>
       </c>
       <c r="Y2">
-        <f>MIN(X2,Y1)+C2</f>
-        <v>161</v>
+        <f>MAX(X2,Y1)+C2</f>
+        <v>209</v>
       </c>
       <c r="Z2">
-        <f>MIN(Y2,Z1)+D2</f>
-        <v>194</v>
+        <f>MAX(Y2,Z1)+D2</f>
+        <v>308</v>
       </c>
       <c r="AA2">
-        <f>MIN(Z2,AA1)+E2</f>
-        <v>272</v>
+        <f>MAX(Z2,AA1)+E2</f>
+        <v>387</v>
       </c>
       <c r="AB2">
-        <f>MIN(AA2,AB1)+F2</f>
-        <v>312</v>
+        <f>MAX(AA2,AB1)+F2</f>
+        <v>427</v>
       </c>
       <c r="AC2">
-        <f>MIN(AB2,AC1)+G2</f>
-        <v>329</v>
+        <f>MAX(AB2,AC1)+G2</f>
+        <v>444</v>
       </c>
       <c r="AD2">
-        <f>MIN(AC2,AD1)+H2</f>
-        <v>375</v>
+        <f>MAX(AC2,AD1)+H2</f>
+        <v>490</v>
       </c>
       <c r="AE2">
-        <f>MIN(AD2,AE1)+I2</f>
-        <v>410</v>
+        <f>MAX(AD2,AE1)+I2</f>
+        <v>526</v>
       </c>
       <c r="AF2">
-        <f>MIN(AE2,AF1)+J2</f>
-        <v>503</v>
+        <f>MAX(AE2,AF1)+J2</f>
+        <v>657</v>
       </c>
       <c r="AG2">
-        <f>MIN(AF2,AG1)+K2</f>
-        <v>598</v>
+        <f>MAX(AF2,AG1)+K2</f>
+        <v>752</v>
       </c>
       <c r="AH2">
-        <f>MIN(AG2,AH1)+L2</f>
-        <v>617</v>
+        <f>MAX(AG2,AH1)+L2</f>
+        <v>771</v>
       </c>
       <c r="AI2">
-        <f>MIN(AH2,AI1)+M2</f>
-        <v>625</v>
+        <f>MAX(AH2,AI1)+M2</f>
+        <v>779</v>
       </c>
       <c r="AJ2">
-        <f>MIN(AI2,AJ1)+N2</f>
-        <v>705</v>
+        <f>MAX(AI2,AJ1)+N2</f>
+        <v>912</v>
       </c>
       <c r="AK2">
-        <f>MIN(AJ2,AK1)+O2</f>
-        <v>803</v>
+        <f>MAX(AJ2,AK1)+O2</f>
+        <v>1010</v>
       </c>
       <c r="AL2">
-        <f>MIN(AK2,AL1)+P2</f>
-        <v>852</v>
+        <f>MAX(AK2,AL1)+P2</f>
+        <v>1059</v>
       </c>
       <c r="AM2">
-        <f>MIN(AL2,AM1)+Q2</f>
-        <v>886</v>
+        <f>MAX(AL2,AM1)+Q2</f>
+        <v>1093</v>
       </c>
       <c r="AN2">
-        <f>MIN(AM2,AN1)+R2</f>
-        <v>918</v>
+        <f>MAX(AM2,AN1)+R2</f>
+        <v>1125</v>
       </c>
       <c r="AO2" s="5">
-        <f>MIN(AN2,AO1)+S2</f>
-        <v>987</v>
+        <f>MAX(AN2,AO1)+S2</f>
+        <v>1194</v>
       </c>
       <c r="AP2" s="14">
-        <f t="shared" ref="AP2:AP5" si="1">AP1+T2</f>
+        <f t="shared" ref="AP2:AP5" si="2">AP1+T2</f>
         <v>1171</v>
       </c>
     </row>
@@ -892,83 +890,83 @@
         <v>1</v>
       </c>
       <c r="W3" s="14">
-        <f t="shared" ref="W3:W20" si="2">W2+A3</f>
+        <f t="shared" si="1"/>
         <v>185</v>
       </c>
       <c r="X3">
-        <f>MIN(W3,X2)+B3</f>
-        <v>178</v>
+        <f>MAX(W3,X2)+B3</f>
+        <v>207</v>
       </c>
       <c r="Y3">
-        <f>MIN(X3,Y2)+C3</f>
-        <v>208</v>
+        <f>MAX(X3,Y2)+C3</f>
+        <v>256</v>
       </c>
       <c r="Z3">
-        <f>MIN(Y3,Z2)+D3</f>
-        <v>246</v>
+        <f>MAX(Y3,Z2)+D3</f>
+        <v>360</v>
       </c>
       <c r="AA3">
-        <f>MIN(Z3,AA2)+E3</f>
-        <v>275</v>
+        <f>MAX(Z3,AA2)+E3</f>
+        <v>416</v>
       </c>
       <c r="AB3">
-        <f>MIN(AA3,AB2)+F3</f>
-        <v>372</v>
+        <f>MAX(AA3,AB2)+F3</f>
+        <v>524</v>
       </c>
       <c r="AC3">
-        <f>MIN(AB3,AC2)+G3</f>
-        <v>347</v>
+        <f>MAX(AB3,AC2)+G3</f>
+        <v>542</v>
       </c>
       <c r="AD3" s="5">
-        <f>MIN(AC3,AD2)+H3</f>
-        <v>367</v>
+        <f>MAX(AC3,AD2)+H3</f>
+        <v>562</v>
       </c>
       <c r="AE3" s="14">
         <f t="shared" ref="AE3:AE16" si="3">AE2+I3</f>
-        <v>416</v>
+        <v>532</v>
       </c>
       <c r="AF3">
-        <f>MIN(AE3,AF2)+J3</f>
-        <v>458</v>
+        <f>MAX(AE3,AF2)+J3</f>
+        <v>699</v>
       </c>
       <c r="AG3">
-        <f>MIN(AF3,AG2)+K3</f>
-        <v>475</v>
+        <f>MAX(AF3,AG2)+K3</f>
+        <v>769</v>
       </c>
       <c r="AH3" s="5">
-        <f>MIN(AG3,AH2)+L3</f>
-        <v>559</v>
+        <f>MAX(AG3,AH2)+L3</f>
+        <v>855</v>
       </c>
       <c r="AI3" s="14">
         <f t="shared" ref="AI3:AI6" si="4">AI2+M3</f>
-        <v>718</v>
+        <v>872</v>
       </c>
       <c r="AJ3">
-        <f>MIN(AI3,AJ2)+N3</f>
-        <v>755</v>
+        <f>MAX(AI3,AJ2)+N3</f>
+        <v>962</v>
       </c>
       <c r="AK3">
-        <f>MIN(AJ3,AK2)+O3</f>
-        <v>766</v>
+        <f>MAX(AJ3,AK2)+O3</f>
+        <v>1021</v>
       </c>
       <c r="AL3">
-        <f>MIN(AK3,AL2)+P3</f>
-        <v>791</v>
+        <f>MAX(AK3,AL2)+P3</f>
+        <v>1084</v>
       </c>
       <c r="AM3">
-        <f>MIN(AL3,AM2)+Q3</f>
-        <v>882</v>
+        <f>MAX(AL3,AM2)+Q3</f>
+        <v>1184</v>
       </c>
       <c r="AN3">
-        <f>MIN(AM3,AN2)+R3</f>
-        <v>942</v>
+        <f>MAX(AM3,AN2)+R3</f>
+        <v>1244</v>
       </c>
       <c r="AO3" s="5">
-        <f>MIN(AN3,AO2)+S3</f>
-        <v>957</v>
+        <f>MAX(AN3,AO2)+S3</f>
+        <v>1259</v>
       </c>
       <c r="AP3" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1172</v>
       </c>
     </row>
@@ -1034,83 +1032,83 @@
         <v>9</v>
       </c>
       <c r="W4" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>248</v>
       </c>
       <c r="X4">
-        <f>MIN(W4,X3)+B4</f>
-        <v>192</v>
+        <f>MAX(W4,X3)+B4</f>
+        <v>262</v>
       </c>
       <c r="Y4">
-        <f>MIN(X4,Y3)+C4</f>
-        <v>285</v>
+        <f>MAX(X4,Y3)+C4</f>
+        <v>355</v>
       </c>
       <c r="Z4">
-        <f>MIN(Y4,Z3)+D4</f>
-        <v>256</v>
+        <f>MAX(Y4,Z3)+D4</f>
+        <v>370</v>
       </c>
       <c r="AA4">
-        <f>MIN(Z4,AA3)+E4</f>
-        <v>267</v>
+        <f>MAX(Z4,AA3)+E4</f>
+        <v>427</v>
       </c>
       <c r="AB4">
-        <f>MIN(AA4,AB3)+F4</f>
-        <v>279</v>
+        <f>MAX(AA4,AB3)+F4</f>
+        <v>536</v>
       </c>
       <c r="AC4">
-        <f>MIN(AB4,AC3)+G4</f>
-        <v>358</v>
+        <f>MAX(AB4,AC3)+G4</f>
+        <v>621</v>
       </c>
       <c r="AD4" s="5">
-        <f>MIN(AC4,AD3)+H4</f>
-        <v>436</v>
+        <f>MAX(AC4,AD3)+H4</f>
+        <v>699</v>
       </c>
       <c r="AE4" s="14">
         <f t="shared" si="3"/>
-        <v>467</v>
+        <v>583</v>
       </c>
       <c r="AF4">
-        <f>MIN(AE4,AF3)+J4</f>
-        <v>468</v>
+        <f>MAX(AE4,AF3)+J4</f>
+        <v>709</v>
       </c>
       <c r="AG4">
-        <f>MIN(AF4,AG3)+K4</f>
-        <v>535</v>
+        <f>MAX(AF4,AG3)+K4</f>
+        <v>836</v>
       </c>
       <c r="AH4" s="5">
-        <f>MIN(AG4,AH3)+L4</f>
-        <v>624</v>
+        <f>MAX(AG4,AH3)+L4</f>
+        <v>944</v>
       </c>
       <c r="AI4" s="14">
         <f t="shared" si="4"/>
-        <v>723</v>
+        <v>877</v>
       </c>
       <c r="AJ4">
-        <f>MIN(AI4,AJ3)+N4</f>
-        <v>741</v>
+        <f>MAX(AI4,AJ3)+N4</f>
+        <v>980</v>
       </c>
       <c r="AK4">
-        <f>MIN(AJ4,AK3)+O4</f>
-        <v>742</v>
+        <f>MAX(AJ4,AK3)+O4</f>
+        <v>1022</v>
       </c>
       <c r="AL4">
-        <f>MIN(AK4,AL3)+P4</f>
-        <v>800</v>
+        <f>MAX(AK4,AL3)+P4</f>
+        <v>1142</v>
       </c>
       <c r="AM4">
-        <f>MIN(AL4,AM3)+Q4</f>
-        <v>855</v>
+        <f>MAX(AL4,AM3)+Q4</f>
+        <v>1239</v>
       </c>
       <c r="AN4">
-        <f>MIN(AM4,AN3)+R4</f>
-        <v>927</v>
+        <f>MAX(AM4,AN3)+R4</f>
+        <v>1316</v>
       </c>
       <c r="AO4" s="5">
-        <f>MIN(AN4,AO3)+S4</f>
-        <v>965</v>
+        <f>MAX(AN4,AO3)+S4</f>
+        <v>1354</v>
       </c>
       <c r="AP4" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1181</v>
       </c>
     </row>
@@ -1176,83 +1174,83 @@
         <v>21</v>
       </c>
       <c r="W5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>345</v>
       </c>
       <c r="X5">
-        <f>MIN(W5,X4)+B5</f>
-        <v>274</v>
+        <f>MAX(W5,X4)+B5</f>
+        <v>427</v>
       </c>
       <c r="Y5" s="7">
-        <f>MIN(X5,Y4)+C5</f>
-        <v>320</v>
+        <f>MAX(X5,Y4)+C5</f>
+        <v>473</v>
       </c>
       <c r="Z5" s="7">
-        <f>MIN(Y5,Z4)+D5</f>
-        <v>284</v>
+        <f>MAX(Y5,Z4)+D5</f>
+        <v>501</v>
       </c>
       <c r="AA5" s="7">
-        <f>MIN(Z5,AA4)+E5</f>
-        <v>302</v>
+        <f>MAX(Z5,AA4)+E5</f>
+        <v>536</v>
       </c>
       <c r="AB5">
-        <f>MIN(AA5,AB4)+F5</f>
-        <v>325</v>
+        <f>MAX(AA5,AB4)+F5</f>
+        <v>582</v>
       </c>
       <c r="AC5">
-        <f>MIN(AB5,AC4)+G5</f>
-        <v>394</v>
+        <f>MAX(AB5,AC4)+G5</f>
+        <v>690</v>
       </c>
       <c r="AD5" s="5">
-        <f>MIN(AC5,AD4)+H5</f>
-        <v>478</v>
+        <f>MAX(AC5,AD4)+H5</f>
+        <v>783</v>
       </c>
       <c r="AE5" s="14">
         <f t="shared" si="3"/>
-        <v>476</v>
+        <v>592</v>
       </c>
       <c r="AF5">
-        <f>MIN(AE5,AF4)+J5</f>
-        <v>493</v>
+        <f>MAX(AE5,AF4)+J5</f>
+        <v>734</v>
       </c>
       <c r="AG5">
-        <f>MIN(AF5,AG4)+K5</f>
-        <v>516</v>
+        <f>MAX(AF5,AG4)+K5</f>
+        <v>859</v>
       </c>
       <c r="AH5" s="5">
-        <f>MIN(AG5,AH4)+L5</f>
-        <v>517</v>
+        <f>MAX(AG5,AH4)+L5</f>
+        <v>945</v>
       </c>
       <c r="AI5" s="14">
         <f t="shared" si="4"/>
-        <v>736</v>
+        <v>890</v>
       </c>
       <c r="AJ5">
-        <f>MIN(AI5,AJ4)+N5</f>
-        <v>800</v>
+        <f>MAX(AI5,AJ4)+N5</f>
+        <v>1044</v>
       </c>
       <c r="AK5" s="5">
-        <f>MIN(AJ5,AK4)+O5</f>
-        <v>757</v>
+        <f>MAX(AJ5,AK4)+O5</f>
+        <v>1059</v>
       </c>
       <c r="AL5" s="14">
         <f t="shared" ref="AL5:AL15" si="5">AL4+P5</f>
-        <v>809</v>
+        <v>1151</v>
       </c>
       <c r="AM5">
-        <f>MIN(AL5,AM4)+Q5</f>
-        <v>827</v>
+        <f>MAX(AL5,AM4)+Q5</f>
+        <v>1257</v>
       </c>
       <c r="AN5" s="7">
-        <f>MIN(AM5,AN4)+R5</f>
-        <v>910</v>
+        <f>MAX(AM5,AN4)+R5</f>
+        <v>1399</v>
       </c>
       <c r="AO5" s="15">
-        <f>MIN(AN5,AO4)+S5</f>
-        <v>992</v>
+        <f>MAX(AN5,AO4)+S5</f>
+        <v>1481</v>
       </c>
       <c r="AP5" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1202</v>
       </c>
     </row>
@@ -1318,88 +1316,88 @@
         <v>51</v>
       </c>
       <c r="V6">
-        <f>MIN(AH6,AK15,AO5,AP20)</f>
-        <v>602</v>
+        <f>MAX(AH6,AK15,AO5,AP20)</f>
+        <v>2417</v>
       </c>
       <c r="W6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>353</v>
       </c>
       <c r="X6">
-        <f>MIN(W6,X5)+B6</f>
-        <v>295</v>
+        <f>MAX(W6,X5)+B6</f>
+        <v>448</v>
       </c>
       <c r="Y6" s="13">
-        <f t="shared" ref="Y6:AA6" si="6">X6+C6</f>
-        <v>315</v>
+        <f t="shared" ref="Y6" si="6">X6+C6</f>
+        <v>468</v>
       </c>
       <c r="Z6" s="13">
-        <f t="shared" si="6"/>
-        <v>396</v>
+        <f t="shared" ref="Z6" si="7">Y6+D6</f>
+        <v>549</v>
       </c>
       <c r="AA6" s="13">
-        <f t="shared" si="6"/>
-        <v>433</v>
+        <f t="shared" ref="AA6" si="8">Z6+E6</f>
+        <v>586</v>
       </c>
       <c r="AB6">
-        <f>MIN(AA6,AB5)+F6</f>
-        <v>401</v>
+        <f>MAX(AA6,AB5)+F6</f>
+        <v>662</v>
       </c>
       <c r="AC6">
-        <f>MIN(AB6,AC5)+G6</f>
-        <v>416</v>
+        <f>MAX(AB6,AC5)+G6</f>
+        <v>712</v>
       </c>
       <c r="AD6" s="5">
-        <f>MIN(AC6,AD5)+H6</f>
-        <v>444</v>
+        <f>MAX(AC6,AD5)+H6</f>
+        <v>811</v>
       </c>
       <c r="AE6" s="14">
         <f t="shared" si="3"/>
-        <v>477</v>
+        <v>593</v>
       </c>
       <c r="AF6" s="7">
-        <f>MIN(AE6,AF5)+J6</f>
-        <v>523</v>
+        <f>MAX(AE6,AF5)+J6</f>
+        <v>780</v>
       </c>
       <c r="AG6" s="7">
-        <f>MIN(AF6,AG5)+K6</f>
-        <v>534</v>
+        <f>MAX(AF6,AG5)+K6</f>
+        <v>877</v>
       </c>
       <c r="AH6" s="15">
-        <f>MIN(AG6,AH5)+L6</f>
-        <v>602</v>
+        <f>MAX(AG6,AH5)+L6</f>
+        <v>1030</v>
       </c>
       <c r="AI6" s="14">
         <f t="shared" si="4"/>
-        <v>829</v>
+        <v>983</v>
       </c>
       <c r="AJ6">
-        <f>MIN(AI6,AJ5)+N6</f>
-        <v>882</v>
+        <f>MAX(AI6,AJ5)+N6</f>
+        <v>1126</v>
       </c>
       <c r="AK6" s="5">
-        <f>MIN(AJ6,AK5)+O6</f>
-        <v>821</v>
+        <f>MAX(AJ6,AK5)+O6</f>
+        <v>1190</v>
       </c>
       <c r="AL6" s="14">
         <f t="shared" si="5"/>
-        <v>822</v>
+        <v>1164</v>
       </c>
       <c r="AM6">
-        <f>MIN(AL6,AM5)+Q6</f>
-        <v>839</v>
+        <f>MAX(AL6,AM5)+Q6</f>
+        <v>1274</v>
       </c>
       <c r="AN6" s="13">
-        <f t="shared" ref="AN6:AO6" si="7">AM6+R6</f>
-        <v>898</v>
+        <f t="shared" ref="AN6" si="9">AM6+R6</f>
+        <v>1333</v>
       </c>
       <c r="AO6" s="13">
-        <f t="shared" si="7"/>
-        <v>925</v>
+        <f t="shared" ref="AO6" si="10">AN6+S6</f>
+        <v>1360</v>
       </c>
       <c r="AP6" s="6">
-        <f>MIN(AO6,AP5)+T6</f>
-        <v>976</v>
+        <f>MAX(AO6,AP5)+T6</f>
+        <v>1411</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1464,84 +1462,84 @@
         <v>64</v>
       </c>
       <c r="W7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>386</v>
       </c>
       <c r="X7">
-        <f>MIN(W7,X6)+B7</f>
-        <v>346</v>
+        <f>MAX(W7,X6)+B7</f>
+        <v>499</v>
       </c>
       <c r="Y7">
-        <f>MIN(X7,Y6)+C7</f>
-        <v>382</v>
+        <f>MAX(X7,Y6)+C7</f>
+        <v>566</v>
       </c>
       <c r="Z7">
-        <f>MIN(Y7,Z6)+D7</f>
-        <v>411</v>
+        <f>MAX(Y7,Z6)+D7</f>
+        <v>595</v>
       </c>
       <c r="AA7">
-        <f>MIN(Z7,AA6)+E7</f>
-        <v>507</v>
+        <f>MAX(Z7,AA6)+E7</f>
+        <v>691</v>
       </c>
       <c r="AB7">
-        <f>MIN(AA7,AB6)+F7</f>
-        <v>455</v>
+        <f>MAX(AA7,AB6)+F7</f>
+        <v>745</v>
       </c>
       <c r="AC7">
-        <f>MIN(AB7,AC6)+G7</f>
-        <v>431</v>
+        <f>MAX(AB7,AC6)+G7</f>
+        <v>760</v>
       </c>
       <c r="AD7" s="5">
-        <f>MIN(AC7,AD6)+H7</f>
-        <v>456</v>
+        <f>MAX(AC7,AD6)+H7</f>
+        <v>836</v>
       </c>
       <c r="AE7" s="14">
         <f t="shared" si="3"/>
-        <v>478</v>
+        <v>594</v>
       </c>
       <c r="AF7" s="13">
-        <f t="shared" ref="AF7:AH7" si="8">AE7+J7</f>
-        <v>541</v>
+        <f t="shared" ref="AF7" si="11">AE7+J7</f>
+        <v>657</v>
       </c>
       <c r="AG7" s="13">
-        <f t="shared" si="8"/>
-        <v>615</v>
+        <f t="shared" ref="AG7" si="12">AF7+K7</f>
+        <v>731</v>
       </c>
       <c r="AH7" s="13">
-        <f t="shared" si="8"/>
-        <v>699</v>
+        <f t="shared" ref="AH7" si="13">AG7+L7</f>
+        <v>815</v>
       </c>
       <c r="AI7">
-        <f>MIN(AH7,AI6)+M7</f>
-        <v>708</v>
+        <f>MAX(AH7,AI6)+M7</f>
+        <v>992</v>
       </c>
       <c r="AJ7">
-        <f>MIN(AI7,AJ6)+N7</f>
-        <v>755</v>
+        <f>MAX(AI7,AJ6)+N7</f>
+        <v>1173</v>
       </c>
       <c r="AK7" s="5">
-        <f>MIN(AJ7,AK6)+O7</f>
-        <v>778</v>
+        <f>MAX(AJ7,AK6)+O7</f>
+        <v>1213</v>
       </c>
       <c r="AL7" s="14">
         <f t="shared" si="5"/>
-        <v>871</v>
+        <v>1213</v>
       </c>
       <c r="AM7">
-        <f>MIN(AL7,AM6)+Q7</f>
-        <v>898</v>
+        <f>MAX(AL7,AM6)+Q7</f>
+        <v>1333</v>
       </c>
       <c r="AN7">
-        <f>MIN(AM7,AN6)+R7</f>
-        <v>975</v>
+        <f>MAX(AM7,AN6)+R7</f>
+        <v>1410</v>
       </c>
       <c r="AO7">
-        <f>MIN(AN7,AO6)+S7</f>
-        <v>942</v>
+        <f>MAX(AN7,AO6)+S7</f>
+        <v>1427</v>
       </c>
       <c r="AP7" s="6">
-        <f>MIN(AO7,AP6)+T7</f>
-        <v>1006</v>
+        <f>MAX(AO7,AP6)+T7</f>
+        <v>1491</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
@@ -1606,84 +1604,84 @@
         <v>92</v>
       </c>
       <c r="W8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>430</v>
       </c>
       <c r="X8">
-        <f>MIN(W8,X7)+B8</f>
-        <v>443</v>
+        <f>MAX(W8,X7)+B8</f>
+        <v>596</v>
       </c>
       <c r="Y8">
-        <f>MIN(X8,Y7)+C8</f>
-        <v>432</v>
+        <f>MAX(X8,Y7)+C8</f>
+        <v>646</v>
       </c>
       <c r="Z8">
-        <f>MIN(Y8,Z7)+D8</f>
-        <v>460</v>
+        <f>MAX(Y8,Z7)+D8</f>
+        <v>695</v>
       </c>
       <c r="AA8">
-        <f>MIN(Z8,AA7)+E8</f>
-        <v>554</v>
+        <f>MAX(Z8,AA7)+E8</f>
+        <v>789</v>
       </c>
       <c r="AB8">
-        <f>MIN(AA8,AB7)+F8</f>
-        <v>505</v>
+        <f>MAX(AA8,AB7)+F8</f>
+        <v>839</v>
       </c>
       <c r="AC8">
-        <f>MIN(AB8,AC7)+G8</f>
-        <v>502</v>
+        <f>MAX(AB8,AC7)+G8</f>
+        <v>910</v>
       </c>
       <c r="AD8" s="5">
-        <f>MIN(AC8,AD7)+H8</f>
-        <v>543</v>
+        <f>MAX(AC8,AD7)+H8</f>
+        <v>997</v>
       </c>
       <c r="AE8" s="14">
         <f t="shared" si="3"/>
-        <v>538</v>
+        <v>654</v>
       </c>
       <c r="AF8">
-        <f>MIN(AE8,AF7)+J8</f>
-        <v>618</v>
+        <f>MAX(AE8,AF7)+J8</f>
+        <v>737</v>
       </c>
       <c r="AG8">
-        <f>MIN(AF8,AG7)+K8</f>
-        <v>665</v>
+        <f>MAX(AF8,AG7)+K8</f>
+        <v>787</v>
       </c>
       <c r="AH8">
-        <f>MIN(AG8,AH7)+L8</f>
-        <v>711</v>
+        <f>MAX(AG8,AH7)+L8</f>
+        <v>861</v>
       </c>
       <c r="AI8">
-        <f>MIN(AH8,AI7)+M8</f>
-        <v>802</v>
+        <f>MAX(AH8,AI7)+M8</f>
+        <v>1086</v>
       </c>
       <c r="AJ8">
-        <f>MIN(AI8,AJ7)+N8</f>
-        <v>756</v>
+        <f>MAX(AI8,AJ7)+N8</f>
+        <v>1174</v>
       </c>
       <c r="AK8" s="5">
-        <f>MIN(AJ8,AK7)+O8</f>
-        <v>771</v>
+        <f>MAX(AJ8,AK7)+O8</f>
+        <v>1228</v>
       </c>
       <c r="AL8" s="14">
         <f t="shared" si="5"/>
-        <v>950</v>
+        <v>1292</v>
       </c>
       <c r="AM8">
-        <f>MIN(AL8,AM7)+Q8</f>
-        <v>956</v>
+        <f>MAX(AL8,AM7)+Q8</f>
+        <v>1391</v>
       </c>
       <c r="AN8">
-        <f>MIN(AM8,AN7)+R8</f>
-        <v>1013</v>
+        <f>MAX(AM8,AN7)+R8</f>
+        <v>1467</v>
       </c>
       <c r="AO8">
-        <f>MIN(AN8,AO7)+S8</f>
-        <v>989</v>
+        <f>MAX(AN8,AO7)+S8</f>
+        <v>1514</v>
       </c>
       <c r="AP8" s="6">
-        <f>MIN(AO8,AP7)+T8</f>
-        <v>1081</v>
+        <f>MAX(AO8,AP7)+T8</f>
+        <v>1606</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
@@ -1748,84 +1746,84 @@
         <v>57</v>
       </c>
       <c r="W9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>478</v>
       </c>
       <c r="X9">
-        <f>MIN(W9,X8)+B9</f>
-        <v>502</v>
+        <f>MAX(W9,X8)+B9</f>
+        <v>655</v>
       </c>
       <c r="Y9">
-        <f>MIN(X9,Y8)+C9</f>
-        <v>440</v>
+        <f>MAX(X9,Y8)+C9</f>
+        <v>663</v>
       </c>
       <c r="Z9">
-        <f>MIN(Y9,Z8)+D9</f>
-        <v>458</v>
+        <f>MAX(Y9,Z8)+D9</f>
+        <v>713</v>
       </c>
       <c r="AA9">
-        <f>MIN(Z9,AA8)+E9</f>
-        <v>474</v>
+        <f>MAX(Z9,AA8)+E9</f>
+        <v>805</v>
       </c>
       <c r="AB9">
-        <f>MIN(AA9,AB8)+F9</f>
-        <v>492</v>
+        <f>MAX(AA9,AB8)+F9</f>
+        <v>857</v>
       </c>
       <c r="AC9">
-        <f>MIN(AB9,AC8)+G9</f>
-        <v>530</v>
+        <f>MAX(AB9,AC8)+G9</f>
+        <v>948</v>
       </c>
       <c r="AD9" s="5">
-        <f>MIN(AC9,AD8)+H9</f>
-        <v>622</v>
+        <f>MAX(AC9,AD8)+H9</f>
+        <v>1089</v>
       </c>
       <c r="AE9" s="14">
         <f t="shared" si="3"/>
-        <v>547</v>
+        <v>663</v>
       </c>
       <c r="AF9">
-        <f>MIN(AE9,AF8)+J9</f>
-        <v>611</v>
+        <f>MAX(AE9,AF8)+J9</f>
+        <v>801</v>
       </c>
       <c r="AG9">
-        <f>MIN(AF9,AG8)+K9</f>
-        <v>633</v>
+        <f>MAX(AF9,AG8)+K9</f>
+        <v>823</v>
       </c>
       <c r="AH9">
-        <f>MIN(AG9,AH8)+L9</f>
-        <v>656</v>
+        <f>MAX(AG9,AH8)+L9</f>
+        <v>884</v>
       </c>
       <c r="AI9">
-        <f>MIN(AH9,AI8)+M9</f>
-        <v>697</v>
+        <f>MAX(AH9,AI8)+M9</f>
+        <v>1127</v>
       </c>
       <c r="AJ9">
-        <f>MIN(AI9,AJ8)+N9</f>
-        <v>704</v>
+        <f>MAX(AI9,AJ8)+N9</f>
+        <v>1181</v>
       </c>
       <c r="AK9" s="5">
-        <f>MIN(AJ9,AK8)+O9</f>
-        <v>707</v>
+        <f>MAX(AJ9,AK8)+O9</f>
+        <v>1231</v>
       </c>
       <c r="AL9" s="14">
         <f t="shared" si="5"/>
-        <v>980</v>
+        <v>1322</v>
       </c>
       <c r="AM9">
-        <f>MIN(AL9,AM8)+Q9</f>
-        <v>1042</v>
+        <f>MAX(AL9,AM8)+Q9</f>
+        <v>1477</v>
       </c>
       <c r="AN9">
-        <f>MIN(AM9,AN8)+R9</f>
-        <v>1016</v>
+        <f>MAX(AM9,AN8)+R9</f>
+        <v>1480</v>
       </c>
       <c r="AO9">
-        <f>MIN(AN9,AO8)+S9</f>
-        <v>1007</v>
+        <f>MAX(AN9,AO8)+S9</f>
+        <v>1532</v>
       </c>
       <c r="AP9" s="6">
-        <f>MIN(AO9,AP8)+T9</f>
-        <v>1064</v>
+        <f>MAX(AO9,AP8)+T9</f>
+        <v>1663</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1890,84 +1888,84 @@
         <v>3</v>
       </c>
       <c r="W10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>557</v>
       </c>
       <c r="X10" s="7">
-        <f>MIN(W10,X9)+B10</f>
-        <v>584</v>
+        <f>MAX(W10,X9)+B10</f>
+        <v>737</v>
       </c>
       <c r="Y10" s="7">
-        <f>MIN(X10,Y9)+C10</f>
-        <v>459</v>
+        <f>MAX(X10,Y9)+C10</f>
+        <v>756</v>
       </c>
       <c r="Z10" s="7">
-        <f>MIN(Y10,Z9)+D10</f>
-        <v>475</v>
+        <f>MAX(Y10,Z9)+D10</f>
+        <v>773</v>
       </c>
       <c r="AA10" s="7">
-        <f>MIN(Z10,AA9)+E10</f>
-        <v>527</v>
+        <f>MAX(Z10,AA9)+E10</f>
+        <v>858</v>
       </c>
       <c r="AB10">
-        <f>MIN(AA10,AB9)+F10</f>
-        <v>495</v>
+        <f>MAX(AA10,AB9)+F10</f>
+        <v>861</v>
       </c>
       <c r="AC10">
-        <f>MIN(AB10,AC9)+G10</f>
-        <v>585</v>
+        <f>MAX(AB10,AC9)+G10</f>
+        <v>1038</v>
       </c>
       <c r="AD10" s="5">
-        <f>MIN(AC10,AD9)+H10</f>
-        <v>636</v>
+        <f>MAX(AC10,AD9)+H10</f>
+        <v>1140</v>
       </c>
       <c r="AE10" s="14">
         <f t="shared" si="3"/>
-        <v>623</v>
+        <v>739</v>
       </c>
       <c r="AF10">
-        <f>MIN(AE10,AF9)+J10</f>
-        <v>669</v>
+        <f>MAX(AE10,AF9)+J10</f>
+        <v>859</v>
       </c>
       <c r="AG10">
-        <f>MIN(AF10,AG9)+K10</f>
-        <v>675</v>
+        <f>MAX(AF10,AG9)+K10</f>
+        <v>901</v>
       </c>
       <c r="AH10">
-        <f>MIN(AG10,AH9)+L10</f>
-        <v>681</v>
+        <f>MAX(AG10,AH9)+L10</f>
+        <v>926</v>
       </c>
       <c r="AI10">
-        <f>MIN(AH10,AI9)+M10</f>
-        <v>691</v>
+        <f>MAX(AH10,AI9)+M10</f>
+        <v>1137</v>
       </c>
       <c r="AJ10">
-        <f>MIN(AI10,AJ9)+N10</f>
-        <v>752</v>
+        <f>MAX(AI10,AJ9)+N10</f>
+        <v>1242</v>
       </c>
       <c r="AK10" s="5">
-        <f>MIN(AJ10,AK9)+O10</f>
-        <v>712</v>
+        <f>MAX(AJ10,AK9)+O10</f>
+        <v>1247</v>
       </c>
       <c r="AL10" s="14">
         <f t="shared" si="5"/>
-        <v>1027</v>
+        <v>1369</v>
       </c>
       <c r="AM10">
-        <f>MIN(AL10,AM9)+Q10</f>
-        <v>1068</v>
+        <f>MAX(AL10,AM9)+Q10</f>
+        <v>1518</v>
       </c>
       <c r="AN10" s="7">
-        <f>MIN(AM10,AN9)+R10</f>
-        <v>1045</v>
+        <f>MAX(AM10,AN9)+R10</f>
+        <v>1547</v>
       </c>
       <c r="AO10" s="7">
-        <f>MIN(AN10,AO9)+S10</f>
-        <v>1035</v>
+        <f>MAX(AN10,AO9)+S10</f>
+        <v>1575</v>
       </c>
       <c r="AP10" s="6">
-        <f>MIN(AO10,AP9)+T10</f>
-        <v>1038</v>
+        <f>MAX(AO10,AP9)+T10</f>
+        <v>1666</v>
       </c>
     </row>
     <row r="11" spans="1:42" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2032,84 +2030,72 @@
         <v>47</v>
       </c>
       <c r="W11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>581</v>
       </c>
-      <c r="X11" s="13">
-        <f t="shared" ref="X11:AA11" si="9">W11+B11</f>
-        <v>603</v>
-      </c>
-      <c r="Y11" s="13">
-        <f t="shared" si="9"/>
-        <v>623</v>
-      </c>
-      <c r="Z11" s="13">
-        <f t="shared" si="9"/>
-        <v>689</v>
-      </c>
-      <c r="AA11" s="13">
-        <f t="shared" si="9"/>
-        <v>787</v>
-      </c>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
       <c r="AB11">
-        <f>MIN(AA11,AB10)+F11</f>
-        <v>505</v>
+        <f>MAX(AA11,AB10)+F11</f>
+        <v>871</v>
       </c>
       <c r="AC11">
-        <f>MIN(AB11,AC10)+G11</f>
-        <v>583</v>
+        <f>MAX(AB11,AC10)+G11</f>
+        <v>1116</v>
       </c>
       <c r="AD11" s="5">
-        <f>MIN(AC11,AD10)+H11</f>
-        <v>658</v>
+        <f>MAX(AC11,AD10)+H11</f>
+        <v>1215</v>
       </c>
       <c r="AE11" s="14">
         <f t="shared" si="3"/>
-        <v>645</v>
+        <v>761</v>
       </c>
       <c r="AF11">
-        <f>MIN(AE11,AF10)+J11</f>
-        <v>721</v>
+        <f>MAX(AE11,AF10)+J11</f>
+        <v>935</v>
       </c>
       <c r="AG11">
-        <f>MIN(AF11,AG10)+K11</f>
-        <v>762</v>
+        <f>MAX(AF11,AG10)+K11</f>
+        <v>1022</v>
       </c>
       <c r="AH11">
-        <f>MIN(AG11,AH10)+L11</f>
-        <v>732</v>
+        <f>MAX(AG11,AH10)+L11</f>
+        <v>1073</v>
       </c>
       <c r="AI11">
-        <f>MIN(AH11,AI10)+M11</f>
-        <v>698</v>
+        <f>MAX(AH11,AI10)+M11</f>
+        <v>1144</v>
       </c>
       <c r="AJ11">
-        <f>MIN(AI11,AJ10)+N11</f>
-        <v>777</v>
+        <f>MAX(AI11,AJ10)+N11</f>
+        <v>1321</v>
       </c>
       <c r="AK11" s="5">
-        <f>MIN(AJ11,AK10)+O11</f>
-        <v>796</v>
+        <f>MAX(AJ11,AK10)+O11</f>
+        <v>1405</v>
       </c>
       <c r="AL11" s="14">
         <f t="shared" si="5"/>
-        <v>1050</v>
+        <v>1392</v>
       </c>
       <c r="AM11">
-        <f>MIN(AL11,AM10)+Q11</f>
-        <v>1064</v>
+        <f>MAX(AL11,AM10)+Q11</f>
+        <v>1532</v>
       </c>
       <c r="AN11" s="13">
-        <f t="shared" ref="AN11:AO11" si="10">AM11+R11</f>
-        <v>1089</v>
+        <f t="shared" ref="AN11" si="14">AM11+R11</f>
+        <v>1557</v>
       </c>
       <c r="AO11" s="13">
-        <f t="shared" si="10"/>
-        <v>1156</v>
+        <f t="shared" ref="AO11" si="15">AN11+S11</f>
+        <v>1624</v>
       </c>
       <c r="AP11" s="6">
-        <f>MIN(AO11,AP10)+T11</f>
-        <v>1085</v>
+        <f>MAX(AO11,AP10)+T11</f>
+        <v>1713</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
@@ -2174,84 +2160,68 @@
         <v>14</v>
       </c>
       <c r="W12" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>632</v>
       </c>
-      <c r="X12">
-        <f>MIN(W12,X11)+B12</f>
-        <v>655</v>
-      </c>
-      <c r="Y12">
-        <f>MIN(X12,Y11)+C12</f>
-        <v>647</v>
-      </c>
-      <c r="Z12">
-        <f>MIN(Y12,Z11)+D12</f>
-        <v>727</v>
-      </c>
-      <c r="AA12">
-        <f>MIN(Z12,AA11)+E12</f>
-        <v>819</v>
-      </c>
       <c r="AB12">
-        <f>MIN(AA12,AB11)+F12</f>
-        <v>517</v>
+        <f>MAX(AA12,AB11)+F12</f>
+        <v>883</v>
       </c>
       <c r="AC12">
-        <f>MIN(AB12,AC11)+G12</f>
-        <v>530</v>
+        <f>MAX(AB12,AC11)+G12</f>
+        <v>1129</v>
       </c>
       <c r="AD12" s="5">
-        <f>MIN(AC12,AD11)+H12</f>
-        <v>587</v>
+        <f>MAX(AC12,AD11)+H12</f>
+        <v>1272</v>
       </c>
       <c r="AE12" s="14">
         <f t="shared" si="3"/>
-        <v>715</v>
+        <v>831</v>
       </c>
       <c r="AF12">
-        <f>MIN(AE12,AF11)+J12</f>
-        <v>813</v>
+        <f>MAX(AE12,AF11)+J12</f>
+        <v>1033</v>
       </c>
       <c r="AG12">
-        <f>MIN(AF12,AG11)+K12</f>
-        <v>800</v>
+        <f>MAX(AF12,AG11)+K12</f>
+        <v>1071</v>
       </c>
       <c r="AH12">
-        <f>MIN(AG12,AH11)+L12</f>
-        <v>760</v>
+        <f>MAX(AG12,AH11)+L12</f>
+        <v>1101</v>
       </c>
       <c r="AI12">
-        <f>MIN(AH12,AI11)+M12</f>
-        <v>758</v>
+        <f>MAX(AH12,AI11)+M12</f>
+        <v>1204</v>
       </c>
       <c r="AJ12">
-        <f>MIN(AI12,AJ11)+N12</f>
-        <v>844</v>
+        <f>MAX(AI12,AJ11)+N12</f>
+        <v>1407</v>
       </c>
       <c r="AK12" s="5">
-        <f>MIN(AJ12,AK11)+O12</f>
-        <v>856</v>
+        <f>MAX(AJ12,AK11)+O12</f>
+        <v>1467</v>
       </c>
       <c r="AL12" s="14">
         <f t="shared" si="5"/>
-        <v>1147</v>
+        <v>1489</v>
       </c>
       <c r="AM12">
-        <f>MIN(AL12,AM11)+Q12</f>
-        <v>1112</v>
+        <f>MAX(AL12,AM11)+Q12</f>
+        <v>1580</v>
       </c>
       <c r="AN12">
-        <f>MIN(AM12,AN11)+R12</f>
-        <v>1127</v>
+        <f>MAX(AM12,AN11)+R12</f>
+        <v>1618</v>
       </c>
       <c r="AO12">
-        <f>MIN(AN12,AO11)+S12</f>
-        <v>1225</v>
+        <f>MAX(AN12,AO11)+S12</f>
+        <v>1722</v>
       </c>
       <c r="AP12" s="6">
-        <f>MIN(AO12,AP11)+T12</f>
-        <v>1099</v>
+        <f>MAX(AO12,AP11)+T12</f>
+        <v>1736</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
@@ -2316,84 +2286,68 @@
         <v>20</v>
       </c>
       <c r="W13" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="X13">
-        <f>MIN(W13,X12)+B13</f>
-        <v>751</v>
-      </c>
-      <c r="Y13">
-        <f>MIN(X13,Y12)+C13</f>
-        <v>741</v>
-      </c>
-      <c r="Z13">
-        <f>MIN(Y13,Z12)+D13</f>
-        <v>768</v>
-      </c>
-      <c r="AA13">
-        <f>MIN(Z13,AA12)+E13</f>
-        <v>856</v>
-      </c>
       <c r="AB13">
-        <f>MIN(AA13,AB12)+F13</f>
-        <v>600</v>
+        <f>MAX(AA13,AB12)+F13</f>
+        <v>966</v>
       </c>
       <c r="AC13">
-        <f>MIN(AB13,AC12)+G13</f>
-        <v>582</v>
+        <f>MAX(AB13,AC12)+G13</f>
+        <v>1181</v>
       </c>
       <c r="AD13" s="5">
-        <f>MIN(AC13,AD12)+H13</f>
-        <v>603</v>
+        <f>MAX(AC13,AD12)+H13</f>
+        <v>1293</v>
       </c>
       <c r="AE13" s="14">
         <f t="shared" si="3"/>
-        <v>753</v>
+        <v>869</v>
       </c>
       <c r="AF13">
-        <f>MIN(AE13,AF12)+J13</f>
-        <v>852</v>
+        <f>MAX(AE13,AF12)+J13</f>
+        <v>1132</v>
       </c>
       <c r="AG13">
-        <f>MIN(AF13,AG12)+K13</f>
-        <v>858</v>
+        <f>MAX(AF13,AG12)+K13</f>
+        <v>1190</v>
       </c>
       <c r="AH13">
-        <f>MIN(AG13,AH12)+L13</f>
-        <v>816</v>
+        <f>MAX(AG13,AH12)+L13</f>
+        <v>1246</v>
       </c>
       <c r="AI13">
-        <f>MIN(AH13,AI12)+M13</f>
-        <v>818</v>
+        <f>MAX(AH13,AI12)+M13</f>
+        <v>1306</v>
       </c>
       <c r="AJ13">
-        <f>MIN(AI13,AJ12)+N13</f>
-        <v>835</v>
+        <f>MAX(AI13,AJ12)+N13</f>
+        <v>1424</v>
       </c>
       <c r="AK13" s="5">
-        <f>MIN(AJ13,AK12)+O13</f>
-        <v>922</v>
+        <f>MAX(AJ13,AK12)+O13</f>
+        <v>1554</v>
       </c>
       <c r="AL13" s="14">
         <f t="shared" si="5"/>
-        <v>1234</v>
+        <v>1576</v>
       </c>
       <c r="AM13">
-        <f>MIN(AL13,AM12)+Q13</f>
-        <v>1131</v>
+        <f>MAX(AL13,AM12)+Q13</f>
+        <v>1599</v>
       </c>
       <c r="AN13">
-        <f>MIN(AM13,AN12)+R13</f>
-        <v>1220</v>
+        <f>MAX(AM13,AN12)+R13</f>
+        <v>1711</v>
       </c>
       <c r="AO13">
-        <f>MIN(AN13,AO12)+S13</f>
-        <v>1300</v>
+        <f>MAX(AN13,AO12)+S13</f>
+        <v>1802</v>
       </c>
       <c r="AP13" s="6">
-        <f>MIN(AO13,AP12)+T13</f>
-        <v>1119</v>
+        <f>MAX(AO13,AP12)+T13</f>
+        <v>1822</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
@@ -2458,84 +2412,68 @@
         <v>32</v>
       </c>
       <c r="W14" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>775</v>
       </c>
-      <c r="X14">
-        <f>MIN(W14,X13)+B14</f>
-        <v>830</v>
-      </c>
-      <c r="Y14">
-        <f>MIN(X14,Y13)+C14</f>
-        <v>803</v>
-      </c>
-      <c r="Z14">
-        <f>MIN(Y14,Z13)+D14</f>
-        <v>802</v>
-      </c>
-      <c r="AA14">
-        <f>MIN(Z14,AA13)+E14</f>
-        <v>859</v>
-      </c>
       <c r="AB14">
-        <f>MIN(AA14,AB13)+F14</f>
-        <v>669</v>
+        <f>MAX(AA14,AB13)+F14</f>
+        <v>1035</v>
       </c>
       <c r="AC14">
-        <f>MIN(AB14,AC13)+G14</f>
-        <v>595</v>
+        <f>MAX(AB14,AC13)+G14</f>
+        <v>1194</v>
       </c>
       <c r="AD14" s="5">
-        <f>MIN(AC14,AD13)+H14</f>
-        <v>632</v>
+        <f>MAX(AC14,AD13)+H14</f>
+        <v>1330</v>
       </c>
       <c r="AE14" s="14">
         <f t="shared" si="3"/>
-        <v>782</v>
+        <v>898</v>
       </c>
       <c r="AF14">
-        <f>MIN(AE14,AF13)+J14</f>
-        <v>798</v>
+        <f>MAX(AE14,AF13)+J14</f>
+        <v>1148</v>
       </c>
       <c r="AG14">
-        <f>MIN(AF14,AG13)+K14</f>
-        <v>889</v>
+        <f>MAX(AF14,AG13)+K14</f>
+        <v>1281</v>
       </c>
       <c r="AH14">
-        <f>MIN(AG14,AH13)+L14</f>
-        <v>871</v>
+        <f>MAX(AG14,AH13)+L14</f>
+        <v>1336</v>
       </c>
       <c r="AI14">
-        <f>MIN(AH14,AI13)+M14</f>
-        <v>861</v>
+        <f>MAX(AH14,AI13)+M14</f>
+        <v>1379</v>
       </c>
       <c r="AJ14">
-        <f>MIN(AI14,AJ13)+N14</f>
-        <v>879</v>
+        <f>MAX(AI14,AJ13)+N14</f>
+        <v>1468</v>
       </c>
       <c r="AK14" s="5">
-        <f>MIN(AJ14,AK13)+O14</f>
-        <v>975</v>
+        <f>MAX(AJ14,AK13)+O14</f>
+        <v>1650</v>
       </c>
       <c r="AL14" s="14">
         <f t="shared" si="5"/>
-        <v>1238</v>
+        <v>1580</v>
       </c>
       <c r="AM14">
-        <f>MIN(AL14,AM13)+Q14</f>
-        <v>1146</v>
+        <f>MAX(AL14,AM13)+Q14</f>
+        <v>1614</v>
       </c>
       <c r="AN14">
-        <f>MIN(AM14,AN13)+R14</f>
-        <v>1194</v>
+        <f>MAX(AM14,AN13)+R14</f>
+        <v>1759</v>
       </c>
       <c r="AO14">
-        <f>MIN(AN14,AO13)+S14</f>
-        <v>1292</v>
+        <f>MAX(AN14,AO13)+S14</f>
+        <v>1900</v>
       </c>
       <c r="AP14" s="6">
-        <f>MIN(AO14,AP13)+T14</f>
-        <v>1151</v>
+        <f>MAX(AO14,AP13)+T14</f>
+        <v>1932</v>
       </c>
     </row>
     <row r="15" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2600,84 +2538,68 @@
         <v>72</v>
       </c>
       <c r="W15" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>799</v>
       </c>
-      <c r="X15">
-        <f>MIN(W15,X14)+B15</f>
-        <v>893</v>
-      </c>
-      <c r="Y15">
-        <f>MIN(X15,Y14)+C15</f>
-        <v>857</v>
-      </c>
-      <c r="Z15">
-        <f>MIN(Y15,Z14)+D15</f>
-        <v>902</v>
-      </c>
-      <c r="AA15">
-        <f>MIN(Z15,AA14)+E15</f>
-        <v>955</v>
-      </c>
       <c r="AB15">
-        <f>MIN(AA15,AB14)+F15</f>
-        <v>694</v>
+        <f>MAX(AA15,AB14)+F15</f>
+        <v>1060</v>
       </c>
       <c r="AC15">
-        <f>MIN(AB15,AC14)+G15</f>
-        <v>621</v>
+        <f>MAX(AB15,AC14)+G15</f>
+        <v>1220</v>
       </c>
       <c r="AD15" s="5">
-        <f>MIN(AC15,AD14)+H15</f>
-        <v>675</v>
+        <f>MAX(AC15,AD14)+H15</f>
+        <v>1384</v>
       </c>
       <c r="AE15" s="14">
         <f t="shared" si="3"/>
-        <v>820</v>
+        <v>936</v>
       </c>
       <c r="AF15">
-        <f>MIN(AE15,AF14)+J15</f>
-        <v>859</v>
+        <f>MAX(AE15,AF14)+J15</f>
+        <v>1209</v>
       </c>
       <c r="AG15">
-        <f>MIN(AF15,AG14)+K15</f>
-        <v>950</v>
+        <f>MAX(AF15,AG14)+K15</f>
+        <v>1372</v>
       </c>
       <c r="AH15" s="7">
-        <f>MIN(AG15,AH14)+L15</f>
-        <v>925</v>
+        <f>MAX(AG15,AH14)+L15</f>
+        <v>1426</v>
       </c>
       <c r="AI15" s="7">
-        <f>MIN(AH15,AI14)+M15</f>
-        <v>876</v>
+        <f>MAX(AH15,AI14)+M15</f>
+        <v>1441</v>
       </c>
       <c r="AJ15" s="7">
-        <f>MIN(AI15,AJ14)+N15</f>
-        <v>934</v>
+        <f>MAX(AI15,AJ14)+N15</f>
+        <v>1526</v>
       </c>
       <c r="AK15" s="15">
-        <f>MIN(AJ15,AK14)+O15</f>
-        <v>945</v>
+        <f>MAX(AJ15,AK14)+O15</f>
+        <v>1661</v>
       </c>
       <c r="AL15" s="14">
         <f t="shared" si="5"/>
-        <v>1261</v>
+        <v>1603</v>
       </c>
       <c r="AM15">
-        <f>MIN(AL15,AM14)+Q15</f>
-        <v>1219</v>
+        <f>MAX(AL15,AM14)+Q15</f>
+        <v>1687</v>
       </c>
       <c r="AN15">
-        <f>MIN(AM15,AN14)+R15</f>
-        <v>1229</v>
+        <f>MAX(AM15,AN14)+R15</f>
+        <v>1794</v>
       </c>
       <c r="AO15">
-        <f>MIN(AN15,AO14)+S15</f>
-        <v>1320</v>
+        <f>MAX(AN15,AO14)+S15</f>
+        <v>1991</v>
       </c>
       <c r="AP15" s="6">
-        <f>MIN(AO15,AP14)+T15</f>
-        <v>1223</v>
+        <f>MAX(AO15,AP14)+T15</f>
+        <v>2063</v>
       </c>
     </row>
     <row r="16" spans="1:42" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2742,84 +2664,68 @@
         <v>74</v>
       </c>
       <c r="W16" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>822</v>
       </c>
-      <c r="X16">
-        <f>MIN(W16,X15)+B16</f>
-        <v>877</v>
-      </c>
-      <c r="Y16">
-        <f>MIN(X16,Y15)+C16</f>
-        <v>930</v>
-      </c>
-      <c r="Z16">
-        <f>MIN(Y16,Z15)+D16</f>
-        <v>969</v>
-      </c>
-      <c r="AA16">
-        <f>MIN(Z16,AA15)+E16</f>
-        <v>1054</v>
-      </c>
       <c r="AB16">
-        <f>MIN(AA16,AB15)+F16</f>
-        <v>728</v>
+        <f>MAX(AA16,AB15)+F16</f>
+        <v>1094</v>
       </c>
       <c r="AC16">
-        <f>MIN(AB16,AC15)+G16</f>
-        <v>704</v>
+        <f>MAX(AB16,AC15)+G16</f>
+        <v>1303</v>
       </c>
       <c r="AD16" s="5">
-        <f>MIN(AC16,AD15)+H16</f>
-        <v>709</v>
+        <f>MAX(AC16,AD15)+H16</f>
+        <v>1418</v>
       </c>
       <c r="AE16" s="14">
         <f t="shared" si="3"/>
-        <v>852</v>
+        <v>968</v>
       </c>
       <c r="AF16">
-        <f>MIN(AE16,AF15)+J16</f>
-        <v>903</v>
+        <f>MAX(AE16,AF15)+J16</f>
+        <v>1260</v>
       </c>
       <c r="AG16">
-        <f>MIN(AF16,AG15)+K16</f>
-        <v>977</v>
+        <f>MAX(AF16,AG15)+K16</f>
+        <v>1446</v>
       </c>
       <c r="AH16" s="13">
-        <f t="shared" ref="AH16:AK16" si="11">AG16+L16</f>
-        <v>1020</v>
+        <f t="shared" ref="AH16" si="16">AG16+L16</f>
+        <v>1489</v>
       </c>
       <c r="AI16" s="13">
-        <f t="shared" si="11"/>
-        <v>1025</v>
+        <f t="shared" ref="AI16" si="17">AH16+M16</f>
+        <v>1494</v>
       </c>
       <c r="AJ16" s="13">
-        <f t="shared" si="11"/>
-        <v>1116</v>
+        <f t="shared" ref="AJ16" si="18">AI16+N16</f>
+        <v>1585</v>
       </c>
       <c r="AK16" s="13">
-        <f t="shared" si="11"/>
-        <v>1133</v>
+        <f t="shared" ref="AK16" si="19">AJ16+O16</f>
+        <v>1602</v>
       </c>
       <c r="AL16">
-        <f>MIN(AK16,AL15)+P16</f>
-        <v>1148</v>
+        <f>MAX(AK16,AL15)+P16</f>
+        <v>1618</v>
       </c>
       <c r="AM16">
-        <f>MIN(AL16,AM15)+Q16</f>
-        <v>1186</v>
+        <f>MAX(AL16,AM15)+Q16</f>
+        <v>1725</v>
       </c>
       <c r="AN16">
-        <f>MIN(AM16,AN15)+R16</f>
-        <v>1242</v>
+        <f>MAX(AM16,AN15)+R16</f>
+        <v>1850</v>
       </c>
       <c r="AO16">
-        <f>MIN(AN16,AO15)+S16</f>
-        <v>1317</v>
+        <f>MAX(AN16,AO15)+S16</f>
+        <v>2066</v>
       </c>
       <c r="AP16" s="6">
-        <f>MIN(AO16,AP15)+T16</f>
-        <v>1297</v>
+        <f>MAX(AO16,AP15)+T16</f>
+        <v>2140</v>
       </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
@@ -2884,84 +2790,68 @@
         <v>54</v>
       </c>
       <c r="W17" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>849</v>
       </c>
-      <c r="X17">
-        <f>MIN(W17,X16)+B17</f>
-        <v>874</v>
-      </c>
-      <c r="Y17">
-        <f>MIN(X17,Y16)+C17</f>
-        <v>921</v>
-      </c>
-      <c r="Z17">
-        <f>MIN(Y17,Z16)+D17</f>
-        <v>935</v>
-      </c>
-      <c r="AA17">
-        <f>MIN(Z17,AA16)+E17</f>
-        <v>980</v>
-      </c>
       <c r="AB17">
-        <f>MIN(AA17,AB16)+F17</f>
-        <v>746</v>
+        <f>MAX(AA17,AB16)+F17</f>
+        <v>1112</v>
       </c>
       <c r="AC17">
-        <f>MIN(AB17,AC16)+G17</f>
-        <v>784</v>
+        <f>MAX(AB17,AC16)+G17</f>
+        <v>1383</v>
       </c>
       <c r="AD17">
-        <f>MIN(AC17,AD16)+H17</f>
-        <v>750</v>
+        <f>MAX(AC17,AD16)+H17</f>
+        <v>1459</v>
       </c>
       <c r="AE17">
-        <f>MIN(AD17,AE16)+I17</f>
-        <v>787</v>
+        <f>MAX(AD17,AE16)+I17</f>
+        <v>1496</v>
       </c>
       <c r="AF17">
-        <f>MIN(AE17,AF16)+J17</f>
-        <v>844</v>
+        <f>MAX(AE17,AF16)+J17</f>
+        <v>1553</v>
       </c>
       <c r="AG17">
-        <f>MIN(AF17,AG16)+K17</f>
-        <v>864</v>
+        <f>MAX(AF17,AG16)+K17</f>
+        <v>1573</v>
       </c>
       <c r="AH17">
-        <f>MIN(AG17,AH16)+L17</f>
-        <v>888</v>
+        <f>MAX(AG17,AH16)+L17</f>
+        <v>1597</v>
       </c>
       <c r="AI17">
-        <f>MIN(AH17,AI16)+M17</f>
-        <v>973</v>
+        <f>MAX(AH17,AI16)+M17</f>
+        <v>1682</v>
       </c>
       <c r="AJ17">
-        <f>MIN(AI17,AJ16)+N17</f>
-        <v>1041</v>
+        <f>MAX(AI17,AJ16)+N17</f>
+        <v>1750</v>
       </c>
       <c r="AK17">
-        <f>MIN(AJ17,AK16)+O17</f>
-        <v>1141</v>
+        <f>MAX(AJ17,AK16)+O17</f>
+        <v>1850</v>
       </c>
       <c r="AL17">
-        <f>MIN(AK17,AL16)+P17</f>
-        <v>1162</v>
+        <f>MAX(AK17,AL16)+P17</f>
+        <v>1871</v>
       </c>
       <c r="AM17">
-        <f>MIN(AL17,AM16)+Q17</f>
-        <v>1223</v>
+        <f>MAX(AL17,AM16)+Q17</f>
+        <v>1932</v>
       </c>
       <c r="AN17">
-        <f>MIN(AM17,AN16)+R17</f>
-        <v>1268</v>
+        <f>MAX(AM17,AN16)+R17</f>
+        <v>1977</v>
       </c>
       <c r="AO17">
-        <f>MIN(AN17,AO16)+S17</f>
-        <v>1277</v>
+        <f>MAX(AN17,AO16)+S17</f>
+        <v>2075</v>
       </c>
       <c r="AP17" s="6">
-        <f>MIN(AO17,AP16)+T17</f>
-        <v>1331</v>
+        <f>MAX(AO17,AP16)+T17</f>
+        <v>2194</v>
       </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
@@ -3026,84 +2916,84 @@
         <v>25</v>
       </c>
       <c r="W18" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>889</v>
       </c>
       <c r="X18">
-        <f>MIN(W18,X17)+B18</f>
-        <v>916</v>
+        <f>MAX(W18,X17)+B18</f>
+        <v>931</v>
       </c>
       <c r="Y18">
-        <f>MIN(X18,Y17)+C18</f>
-        <v>987</v>
+        <f>MAX(X18,Y17)+C18</f>
+        <v>1002</v>
       </c>
       <c r="Z18">
-        <f>MIN(Y18,Z17)+D18</f>
-        <v>1000</v>
+        <f>MAX(Y18,Z17)+D18</f>
+        <v>1067</v>
       </c>
       <c r="AA18">
-        <f>MIN(Z18,AA17)+E18</f>
-        <v>1026</v>
+        <f>MAX(Z18,AA17)+E18</f>
+        <v>1113</v>
       </c>
       <c r="AB18">
-        <f>MIN(AA18,AB17)+F18</f>
-        <v>833</v>
+        <f>MAX(AA18,AB17)+F18</f>
+        <v>1200</v>
       </c>
       <c r="AC18">
-        <f>MIN(AB18,AC17)+G18</f>
-        <v>824</v>
+        <f>MAX(AB18,AC17)+G18</f>
+        <v>1423</v>
       </c>
       <c r="AD18">
-        <f>MIN(AC18,AD17)+H18</f>
-        <v>825</v>
+        <f>MAX(AC18,AD17)+H18</f>
+        <v>1534</v>
       </c>
       <c r="AE18">
-        <f>MIN(AD18,AE17)+I18</f>
-        <v>840</v>
+        <f>MAX(AD18,AE17)+I18</f>
+        <v>1587</v>
       </c>
       <c r="AF18">
-        <f>MIN(AE18,AF17)+J18</f>
-        <v>864</v>
+        <f>MAX(AE18,AF17)+J18</f>
+        <v>1611</v>
       </c>
       <c r="AG18">
-        <f>MIN(AF18,AG17)+K18</f>
-        <v>884</v>
+        <f>MAX(AF18,AG17)+K18</f>
+        <v>1631</v>
       </c>
       <c r="AH18">
-        <f>MIN(AG18,AH17)+L18</f>
-        <v>899</v>
+        <f>MAX(AG18,AH17)+L18</f>
+        <v>1646</v>
       </c>
       <c r="AI18">
-        <f>MIN(AH18,AI17)+M18</f>
-        <v>981</v>
+        <f>MAX(AH18,AI17)+M18</f>
+        <v>1764</v>
       </c>
       <c r="AJ18">
-        <f>MIN(AI18,AJ17)+N18</f>
-        <v>1007</v>
+        <f>MAX(AI18,AJ17)+N18</f>
+        <v>1790</v>
       </c>
       <c r="AK18">
-        <f>MIN(AJ18,AK17)+O18</f>
-        <v>1041</v>
+        <f>MAX(AJ18,AK17)+O18</f>
+        <v>1884</v>
       </c>
       <c r="AL18">
-        <f>MIN(AK18,AL17)+P18</f>
-        <v>1124</v>
+        <f>MAX(AK18,AL17)+P18</f>
+        <v>1967</v>
       </c>
       <c r="AM18">
-        <f>MIN(AL18,AM17)+Q18</f>
-        <v>1195</v>
+        <f>MAX(AL18,AM17)+Q18</f>
+        <v>2038</v>
       </c>
       <c r="AN18">
-        <f>MIN(AM18,AN17)+R18</f>
-        <v>1283</v>
+        <f>MAX(AM18,AN17)+R18</f>
+        <v>2126</v>
       </c>
       <c r="AO18">
-        <f>MIN(AN18,AO17)+S18</f>
-        <v>1367</v>
+        <f>MAX(AN18,AO17)+S18</f>
+        <v>2216</v>
       </c>
       <c r="AP18" s="6">
-        <f>MIN(AO18,AP17)+T18</f>
-        <v>1356</v>
+        <f>MAX(AO18,AP17)+T18</f>
+        <v>2241</v>
       </c>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
@@ -3168,84 +3058,84 @@
         <v>73</v>
       </c>
       <c r="W19" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>931</v>
       </c>
       <c r="X19">
-        <f>MIN(W19,X18)+B19</f>
-        <v>927</v>
+        <f>MAX(W19,X18)+B19</f>
+        <v>942</v>
       </c>
       <c r="Y19">
-        <f>MIN(X19,Y18)+C19</f>
-        <v>963</v>
+        <f>MAX(X19,Y18)+C19</f>
+        <v>1038</v>
       </c>
       <c r="Z19">
-        <f>MIN(Y19,Z18)+D19</f>
-        <v>1062</v>
+        <f>MAX(Y19,Z18)+D19</f>
+        <v>1166</v>
       </c>
       <c r="AA19">
-        <f>MIN(Z19,AA18)+E19</f>
-        <v>1054</v>
+        <f>MAX(Z19,AA18)+E19</f>
+        <v>1194</v>
       </c>
       <c r="AB19">
-        <f>MIN(AA19,AB18)+F19</f>
-        <v>903</v>
+        <f>MAX(AA19,AB18)+F19</f>
+        <v>1270</v>
       </c>
       <c r="AC19">
-        <f>MIN(AB19,AC18)+G19</f>
-        <v>922</v>
+        <f>MAX(AB19,AC18)+G19</f>
+        <v>1521</v>
       </c>
       <c r="AD19">
-        <f>MIN(AC19,AD18)+H19</f>
-        <v>842</v>
+        <f>MAX(AC19,AD18)+H19</f>
+        <v>1551</v>
       </c>
       <c r="AE19">
-        <f>MIN(AD19,AE18)+I19</f>
-        <v>863</v>
+        <f>MAX(AD19,AE18)+I19</f>
+        <v>1610</v>
       </c>
       <c r="AF19">
-        <f>MIN(AE19,AF18)+J19</f>
-        <v>901</v>
+        <f>MAX(AE19,AF18)+J19</f>
+        <v>1649</v>
       </c>
       <c r="AG19">
-        <f>MIN(AF19,AG18)+K19</f>
-        <v>962</v>
+        <f>MAX(AF19,AG18)+K19</f>
+        <v>1727</v>
       </c>
       <c r="AH19">
-        <f>MIN(AG19,AH18)+L19</f>
-        <v>924</v>
+        <f>MAX(AG19,AH18)+L19</f>
+        <v>1752</v>
       </c>
       <c r="AI19">
-        <f>MIN(AH19,AI18)+M19</f>
-        <v>970</v>
+        <f>MAX(AH19,AI18)+M19</f>
+        <v>1810</v>
       </c>
       <c r="AJ19">
-        <f>MIN(AI19,AJ18)+N19</f>
-        <v>1018</v>
+        <f>MAX(AI19,AJ18)+N19</f>
+        <v>1858</v>
       </c>
       <c r="AK19">
-        <f>MIN(AJ19,AK18)+O19</f>
-        <v>1020</v>
+        <f>MAX(AJ19,AK18)+O19</f>
+        <v>1886</v>
       </c>
       <c r="AL19">
-        <f>MIN(AK19,AL18)+P19</f>
-        <v>1058</v>
+        <f>MAX(AK19,AL18)+P19</f>
+        <v>2005</v>
       </c>
       <c r="AM19">
-        <f>MIN(AL19,AM18)+Q19</f>
-        <v>1112</v>
+        <f>MAX(AL19,AM18)+Q19</f>
+        <v>2092</v>
       </c>
       <c r="AN19">
-        <f>MIN(AM19,AN18)+R19</f>
-        <v>1152</v>
+        <f>MAX(AM19,AN18)+R19</f>
+        <v>2166</v>
       </c>
       <c r="AO19">
-        <f>MIN(AN19,AO18)+S19</f>
-        <v>1184</v>
+        <f>MAX(AN19,AO18)+S19</f>
+        <v>2248</v>
       </c>
       <c r="AP19" s="6">
-        <f>MIN(AO19,AP18)+T19</f>
-        <v>1257</v>
+        <f>MAX(AO19,AP18)+T19</f>
+        <v>2321</v>
       </c>
     </row>
     <row r="20" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3310,84 +3200,84 @@
         <v>96</v>
       </c>
       <c r="W20" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>937</v>
       </c>
       <c r="X20" s="11">
-        <f>MIN(W20,X19)+B20</f>
-        <v>1008</v>
+        <f>MAX(W20,X19)+B20</f>
+        <v>1023</v>
       </c>
       <c r="Y20" s="11">
-        <f>MIN(X20,Y19)+C20</f>
-        <v>1023</v>
+        <f>MAX(X20,Y19)+C20</f>
+        <v>1098</v>
       </c>
       <c r="Z20" s="11">
-        <f>MIN(Y20,Z19)+D20</f>
-        <v>1052</v>
+        <f>MAX(Y20,Z19)+D20</f>
+        <v>1195</v>
       </c>
       <c r="AA20" s="11">
-        <f>MIN(Z20,AA19)+E20</f>
-        <v>1101</v>
+        <f>MAX(Z20,AA19)+E20</f>
+        <v>1244</v>
       </c>
       <c r="AB20" s="11">
-        <f>MIN(AA20,AB19)+F20</f>
-        <v>958</v>
+        <f>MAX(AA20,AB19)+F20</f>
+        <v>1325</v>
       </c>
       <c r="AC20" s="11">
-        <f>MIN(AB20,AC19)+G20</f>
-        <v>1015</v>
+        <f>MAX(AB20,AC19)+G20</f>
+        <v>1614</v>
       </c>
       <c r="AD20" s="11">
-        <f>MIN(AC20,AD19)+H20</f>
-        <v>858</v>
+        <f>MAX(AC20,AD19)+H20</f>
+        <v>1630</v>
       </c>
       <c r="AE20" s="11">
-        <f>MIN(AD20,AE19)+I20</f>
-        <v>906</v>
+        <f>MAX(AD20,AE19)+I20</f>
+        <v>1678</v>
       </c>
       <c r="AF20" s="11">
-        <f>MIN(AE20,AF19)+J20</f>
-        <v>998</v>
+        <f>MAX(AE20,AF19)+J20</f>
+        <v>1775</v>
       </c>
       <c r="AG20" s="11">
-        <f>MIN(AF20,AG19)+K20</f>
-        <v>1032</v>
+        <f>MAX(AF20,AG19)+K20</f>
+        <v>1845</v>
       </c>
       <c r="AH20" s="11">
-        <f>MIN(AG20,AH19)+L20</f>
-        <v>988</v>
+        <f>MAX(AG20,AH19)+L20</f>
+        <v>1909</v>
       </c>
       <c r="AI20" s="11">
-        <f>MIN(AH20,AI19)+M20</f>
-        <v>997</v>
+        <f>MAX(AH20,AI19)+M20</f>
+        <v>1936</v>
       </c>
       <c r="AJ20" s="11">
-        <f>MIN(AI20,AJ19)+N20</f>
-        <v>1050</v>
+        <f>MAX(AI20,AJ19)+N20</f>
+        <v>1989</v>
       </c>
       <c r="AK20" s="11">
-        <f>MIN(AJ20,AK19)+O20</f>
-        <v>1084</v>
+        <f>MAX(AJ20,AK19)+O20</f>
+        <v>2053</v>
       </c>
       <c r="AL20" s="11">
-        <f>MIN(AK20,AL19)+P20</f>
-        <v>1158</v>
+        <f>MAX(AK20,AL19)+P20</f>
+        <v>2153</v>
       </c>
       <c r="AM20" s="11">
-        <f>MIN(AL20,AM19)+Q20</f>
-        <v>1154</v>
+        <f>MAX(AL20,AM19)+Q20</f>
+        <v>2195</v>
       </c>
       <c r="AN20" s="11">
-        <f>MIN(AM20,AN19)+R20</f>
-        <v>1236</v>
+        <f>MAX(AM20,AN19)+R20</f>
+        <v>2279</v>
       </c>
       <c r="AO20" s="11">
-        <f>MIN(AN20,AO19)+S20</f>
-        <v>1216</v>
+        <f>MAX(AN20,AO19)+S20</f>
+        <v>2311</v>
       </c>
       <c r="AP20" s="16">
-        <f>MIN(AO20,AP19)+T20</f>
-        <v>1312</v>
+        <f>MAX(AO20,AP19)+T20</f>
+        <v>2417</v>
       </c>
     </row>
   </sheetData>
